--- a/lin_R1_by_R2 (2 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (2 by 1)1000.xlsx
@@ -15,7 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>freq_to_store</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,6 +366,155 @@
         <v>-0.10682934035298806</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.3194396118962182</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.6610760567439826</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0911708587578497</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.6326281344936886</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.314282458318377</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.1724344086406475</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.25278370608208</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.612862890245074</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.325101137240146</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.48068137742814</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.194396118962182</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16.610760567439826</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.9117085875785</v>
+      </c>
+      <c r="N3" t="n">
+        <v>26.326281344936884</v>
+      </c>
+      <c r="O3" t="n">
+        <v>33.14282458318377</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.724344086406475</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>52.5278370608208</v>
+      </c>
+      <c r="R3" t="n">
+        <v>66.12862890245074</v>
+      </c>
+      <c r="S3" t="n">
+        <v>83.25101137240146</v>
+      </c>
+      <c r="T3" t="n">
+        <v>104.80681377428141</v>
+      </c>
+      <c r="U3" t="n">
+        <v>131.94396118962183</v>
+      </c>
+      <c r="V3" t="n">
+        <v>166.1076056743983</v>
+      </c>
+      <c r="W3" t="n">
+        <v>209.117085875785</v>
+      </c>
+      <c r="X3" t="n">
+        <v>263.2628134493688</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>331.42824583183767</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>417.2434408640648</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>525.278370608208</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>661.2862890245074</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>832.5101137240147</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1048.068137742814</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1319.4396118962181</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1661.0760567439827</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2091.17085875785</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2632.6281344936883</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3314.282458318377</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4172.434408640647</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5252.78370608208</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6612.862890245074</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>8325.101137240146</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>10480.681377428142</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13194.396118962182</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>16610.760567439826</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>20911.708587578498</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>26326.281344936884</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>33142.82458318377</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>41724.344086406476</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>52527.8370608208</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>66128.62890245074</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>83251.01137240147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (2 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (2 by 1)1000.xlsx
@@ -826,6 +826,155 @@
         <v>-0.10683783818174182</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.3194396118962182</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.6610760567439826</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0911708587578497</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.6326281344936886</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.314282458318377</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.1724344086406475</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.25278370608208</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.612862890245074</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.325101137240146</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.48068137742814</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.194396118962182</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16.610760567439826</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.9117085875785</v>
+      </c>
+      <c r="N3" t="n">
+        <v>26.326281344936884</v>
+      </c>
+      <c r="O3" t="n">
+        <v>33.14282458318377</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.724344086406475</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>52.5278370608208</v>
+      </c>
+      <c r="R3" t="n">
+        <v>66.12862890245074</v>
+      </c>
+      <c r="S3" t="n">
+        <v>83.25101137240146</v>
+      </c>
+      <c r="T3" t="n">
+        <v>104.80681377428141</v>
+      </c>
+      <c r="U3" t="n">
+        <v>131.94396118962183</v>
+      </c>
+      <c r="V3" t="n">
+        <v>166.1076056743983</v>
+      </c>
+      <c r="W3" t="n">
+        <v>209.117085875785</v>
+      </c>
+      <c r="X3" t="n">
+        <v>263.2628134493688</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>331.42824583183767</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>417.2434408640648</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>525.278370608208</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>661.2862890245074</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>832.5101137240147</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1048.068137742814</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1319.4396118962181</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1661.0760567439827</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2091.17085875785</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2632.6281344936883</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3314.282458318377</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4172.434408640647</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5252.78370608208</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6612.862890245074</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>8325.101137240146</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>10480.681377428142</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13194.396118962182</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>16610.760567439826</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>20911.708587578498</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>26326.281344936884</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>33142.82458318377</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>41724.344086406476</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>52527.8370608208</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>66128.62890245074</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>83251.01137240147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1135,6 +1284,155 @@
       </c>
       <c r="AW2" t="n">
         <v>-0.1068390532474803</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.3194396118962182</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.6610760567439826</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0911708587578497</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.6326281344936886</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.314282458318377</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.1724344086406475</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.25278370608208</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.612862890245074</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.325101137240146</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.48068137742814</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.194396118962182</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16.610760567439826</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.9117085875785</v>
+      </c>
+      <c r="N3" t="n">
+        <v>26.326281344936884</v>
+      </c>
+      <c r="O3" t="n">
+        <v>33.14282458318377</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.724344086406475</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>52.5278370608208</v>
+      </c>
+      <c r="R3" t="n">
+        <v>66.12862890245074</v>
+      </c>
+      <c r="S3" t="n">
+        <v>83.25101137240146</v>
+      </c>
+      <c r="T3" t="n">
+        <v>104.80681377428141</v>
+      </c>
+      <c r="U3" t="n">
+        <v>131.94396118962183</v>
+      </c>
+      <c r="V3" t="n">
+        <v>166.1076056743983</v>
+      </c>
+      <c r="W3" t="n">
+        <v>209.117085875785</v>
+      </c>
+      <c r="X3" t="n">
+        <v>263.2628134493688</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>331.42824583183767</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>417.2434408640648</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>525.278370608208</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>661.2862890245074</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>832.5101137240147</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1048.068137742814</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1319.4396118962181</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1661.0760567439827</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2091.17085875785</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2632.6281344936883</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3314.282458318377</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4172.434408640647</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5252.78370608208</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6612.862890245074</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>8325.101137240146</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>10480.681377428142</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13194.396118962182</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>16610.760567439826</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>20911.708587578498</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>26326.281344936884</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>33142.82458318377</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>41724.344086406476</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>52527.8370608208</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>66128.62890245074</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>83251.01137240147</v>
       </c>
     </row>
   </sheetData>
@@ -1448,6 +1746,155 @@
         <v>-0.10682933196822564</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.3194396118962182</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.6610760567439826</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0911708587578497</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.6326281344936886</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.314282458318377</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.1724344086406475</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.25278370608208</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.612862890245074</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.325101137240146</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.48068137742814</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.194396118962182</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16.610760567439826</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.9117085875785</v>
+      </c>
+      <c r="N3" t="n">
+        <v>26.326281344936884</v>
+      </c>
+      <c r="O3" t="n">
+        <v>33.14282458318377</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.724344086406475</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>52.5278370608208</v>
+      </c>
+      <c r="R3" t="n">
+        <v>66.12862890245074</v>
+      </c>
+      <c r="S3" t="n">
+        <v>83.25101137240146</v>
+      </c>
+      <c r="T3" t="n">
+        <v>104.80681377428141</v>
+      </c>
+      <c r="U3" t="n">
+        <v>131.94396118962183</v>
+      </c>
+      <c r="V3" t="n">
+        <v>166.1076056743983</v>
+      </c>
+      <c r="W3" t="n">
+        <v>209.117085875785</v>
+      </c>
+      <c r="X3" t="n">
+        <v>263.2628134493688</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>331.42824583183767</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>417.2434408640648</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>525.278370608208</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>661.2862890245074</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>832.5101137240147</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1048.068137742814</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1319.4396118962181</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1661.0760567439827</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2091.17085875785</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2632.6281344936883</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3314.282458318377</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4172.434408640647</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5252.78370608208</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6612.862890245074</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>8325.101137240146</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>10480.681377428142</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13194.396118962182</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>16610.760567439826</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>20911.708587578498</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>26326.281344936884</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>33142.82458318377</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>41724.344086406476</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>52527.8370608208</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>66128.62890245074</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>83251.01137240147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (2 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (2 by 1)1000.xlsx
@@ -70,449 +70,485 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.1666661579075335</v>
+        <v>1.166666585860975</v>
       </c>
       <c r="B1" t="n">
-        <v>1.166665860338105</v>
+        <v>1.1666665385982844</v>
       </c>
       <c r="C1" t="n">
-        <v>1.1666653887228353</v>
+        <v>1.1666664636919801</v>
       </c>
       <c r="D1" t="n">
-        <v>1.1666646412642394</v>
+        <v>1.1666663449735195</v>
       </c>
       <c r="E1" t="n">
-        <v>1.166663456625301</v>
+        <v>1.1666661568175176</v>
       </c>
       <c r="F1" t="n">
-        <v>1.1666615791069024</v>
+        <v>1.1666658586105478</v>
       </c>
       <c r="G1" t="n">
-        <v>1.1666586034603437</v>
+        <v>1.166665385984845</v>
       </c>
       <c r="H1" t="n">
-        <v>1.1666538874275258</v>
+        <v>1.1666646369248261</v>
       </c>
       <c r="I1" t="n">
-        <v>1.1666464131426892</v>
+        <v>1.1666634497478163</v>
       </c>
       <c r="J1" t="n">
-        <v>1.1666345675096708</v>
+        <v>1.1666615682068795</v>
       </c>
       <c r="K1" t="n">
-        <v>1.166615794225528</v>
+        <v>1.166658586185111</v>
       </c>
       <c r="L1" t="n">
-        <v>1.1665860425318595</v>
+        <v>1.1666538600484777</v>
       </c>
       <c r="M1" t="n">
-        <v>1.1665388941891335</v>
+        <v>1.1666463697507021</v>
       </c>
       <c r="N1" t="n">
-        <v>1.1664641814426309</v>
+        <v>1.166634498740216</v>
       </c>
       <c r="O1" t="n">
-        <v>1.1663458007080552</v>
+        <v>1.166615685238839</v>
       </c>
       <c r="P1" t="n">
-        <v>1.1661582576871659</v>
+        <v>1.1665858698135416</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.1658612172913778</v>
+        <v>1.166538620484066</v>
       </c>
       <c r="R1" t="n">
-        <v>1.165390929820113</v>
+        <v>1.1664637477372743</v>
       </c>
       <c r="S1" t="n">
-        <v>1.164646802246347</v>
+        <v>1.1663451135521987</v>
       </c>
       <c r="T1" t="n">
-        <v>1.1634705135593648</v>
+        <v>1.1661571691728276</v>
       </c>
       <c r="U1" t="n">
-        <v>1.1616139030906099</v>
+        <v>1.1658594935033608</v>
       </c>
       <c r="V1" t="n">
-        <v>1.1586905103065057</v>
+        <v>1.1653882012885843</v>
       </c>
       <c r="W1" t="n">
-        <v>1.1541046920747569</v>
+        <v>1.1646424865556884</v>
       </c>
       <c r="X1" t="n">
-        <v>1.1469534233439298</v>
+        <v>1.1634636955183293</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.1359034377636894</v>
+        <v>1.16160315180845</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.1190688678234781</v>
+        <v>1.1586736064264571</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.0939647684050657</v>
+        <v>1.1540782369208948</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.0576952229977257</v>
+        <v>1.1469123174073412</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.007607325506571</v>
+        <v>1.135840277254738</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.9425430627482846</v>
+        <v>1.1189734668862257</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.8643186672729551</v>
+        <v>1.0938243304549722</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.7783020316622601</v>
+        <v>1.0574961161583905</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.6919695343640896</v>
+        <v>1.007339534597857</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.6119300127000844</v>
+        <v>0.9422071294733907</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.5415789933824228</v>
+        <v>0.8639315624098711</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.4809579077212273</v>
+        <v>0.7778955912037958</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.42831805919660887</v>
+        <v>0.6915789214113093</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.3818260612307986</v>
+        <v>0.6115794852965096</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.34034638108891896</v>
+        <v>0.5412757264736455</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.3033029269657075</v>
+        <v>0.48069640684414766</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.27028262986797713</v>
+        <v>0.4280889547322624</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.2408677929919527</v>
+        <v>0.381622291238289</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.21465969478944502</v>
+        <v>0.3401642974938909</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.19130575168348624</v>
+        <v>0.30314048154998274</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.1704944788170577</v>
+        <v>0.27013791227092027</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.151948503783494</v>
+        <v>0.2407388679136593</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.13542083986173512</v>
+        <v>0.2145448138077352</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.12069156035838373</v>
+        <v>0.1912033797106333</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.10756478771692492</v>
+        <v>0.17040325129298722</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.15186720520628583</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.1353483880418211</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.12062699153336233</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.10750724344207226</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-364.9723115051205</v>
+        <v>-915.787120359211</v>
       </c>
       <c r="B2" t="n">
-        <v>-289.908111977293</v>
+        <v>-727.4356862807525</v>
       </c>
       <c r="C2" t="n">
-        <v>-230.2825765671634</v>
+        <v>-577.8228551043708</v>
       </c>
       <c r="D2" t="n">
-        <v>-182.92042808815742</v>
+        <v>-458.9811980039511</v>
       </c>
       <c r="E2" t="n">
-        <v>-145.29945942608157</v>
+        <v>-364.58196338055427</v>
       </c>
       <c r="F2" t="n">
-        <v>-115.4162168126512</v>
+        <v>-289.5980477618405</v>
       </c>
       <c r="G2" t="n">
-        <v>-91.67930860596691</v>
+        <v>-230.03628421069578</v>
       </c>
       <c r="H2" t="n">
-        <v>-72.82465788108563</v>
+        <v>-182.72479162458072</v>
       </c>
       <c r="I2" t="n">
-        <v>-57.84818572137699</v>
+        <v>-145.14406050031366</v>
       </c>
       <c r="J2" t="n">
-        <v>-45.95234034901351</v>
+        <v>-115.29277986522034</v>
       </c>
       <c r="K2" t="n">
-        <v>-36.503624572929134</v>
+        <v>-91.58126016928837</v>
       </c>
       <c r="L2" t="n">
-        <v>-28.99885973022602</v>
+        <v>-72.74677651833305</v>
       </c>
       <c r="M2" t="n">
-        <v>-23.038389541430373</v>
+        <v>-57.78632396591257</v>
       </c>
       <c r="N2" t="n">
-        <v>-18.304796864334953</v>
+        <v>-45.903203836628265</v>
       </c>
       <c r="O2" t="n">
-        <v>-14.545999890457365</v>
+        <v>-36.46459660486118</v>
       </c>
       <c r="P2" t="n">
-        <v>-11.561827504374007</v>
+        <v>-28.967861924260685</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.193358714892634</v>
+        <v>-23.01377115017133</v>
       </c>
       <c r="R2" t="n">
-        <v>-7.314458087100849</v>
+        <v>-18.285246866293534</v>
       </c>
       <c r="S2" t="n">
-        <v>-5.825055701464862</v>
+        <v>-14.530477172196916</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.645812389756498</v>
+        <v>-11.549505415071014</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.713883462046539</v>
+        <v>-9.183581039485414</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.9795501783720733</v>
+        <v>-7.306704091144063</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.403529971705675</v>
+        <v>-5.818912381685294</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.9548050170523346</v>
+        <v>-4.640952443717345</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.6088250933865365</v>
+        <v>-3.710047786647613</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.3459484801351116</v>
+        <v>-2.9765339327866807</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.1499981149552325</v>
+        <v>-2.401171403092574</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.0068680359409239</v>
+        <v>-1.9529763506134648</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.9032841910289945</v>
+        <v>-1.6074248391415678</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.8261304021691298</v>
+        <v>-1.3448945402374215</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.7629684572201368</v>
+        <v>-1.1492211986863186</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.7039232890985487</v>
+        <v>-1.0063053609235548</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.6437758182076402</v>
+        <v>-0.9028745904352908</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.5823035622254218</v>
+        <v>-0.8258135129807551</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.5222573226009071</v>
+        <v>-0.762690618710348</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.46654891075067473</v>
+        <v>-0.7036482592686107</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.41657651402922397</v>
+        <v>-0.6434917618553662</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.3722108850815136</v>
+        <v>-0.5820186180009806</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.33267154926863285</v>
+        <v>-0.5219866026298602</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.29725937689041504</v>
+        <v>-0.46630301702221544</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.265518988278071</v>
+        <v>-0.4163578672603818</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.23710213020826781</v>
+        <v>-0.3720166087184676</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.21168078337064444</v>
+        <v>-0.3324978619282181</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.18894849371675235</v>
+        <v>-0.2971036613755216</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.16862834597181284</v>
+        <v>-0.26537949515749737</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.1504706087953061</v>
+        <v>-0.23697730685371546</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.13425002226280477</v>
+        <v>-0.21156914358495826</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.1197637409938742</v>
+        <v>-0.18884868213564773</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.10682934035298806</v>
+        <v>-0.16853914180239324</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.1503909102032242</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.13417883627638577</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.11970017408476198</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.10677258941586149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.3194396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.6610760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0911708587578497</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6326281344936886</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.314282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>4.1724344086406475</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>5.25278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.612862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>8.325101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>10.48068137742814</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>13.194396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>16.610760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>20.9117085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>26.326281344936884</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>33.14282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>41.724344086406475</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.5278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>66.12862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>83.25101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>104.80681377428141</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>131.94396118962183</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>166.1076056743983</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>209.117085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>263.2628134493688</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>331.42824583183767</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>417.2434408640648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>525.278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>661.2862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>832.5101137240147</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1048.068137742814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1319.4396118962181</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1661.0760567439827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2091.17085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2632.6281344936883</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3314.282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4172.434408640647</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>5252.78370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6612.862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>8325.101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>10480.681377428142</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>13194.396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>16610.760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20911.708587578498</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>26326.281344936884</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>33142.82458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>41724.344086406476</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>52527.8370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>66128.62890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>83251.01137240147</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -530,449 +566,485 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.1666669317831826</v>
+        <v>1.166666708777631</v>
       </c>
       <c r="B1" t="n">
-        <v>1.1666670868285713</v>
+        <v>1.1666667334075564</v>
       </c>
       <c r="C1" t="n">
-        <v>1.1666673325295382</v>
+        <v>1.1666667724426156</v>
       </c>
       <c r="D1" t="n">
-        <v>1.166667721865448</v>
+        <v>1.1666668343071511</v>
       </c>
       <c r="E1" t="n">
-        <v>1.1666683387357264</v>
+        <v>1.1666669323511498</v>
       </c>
       <c r="F1" t="n">
-        <v>1.1666693159432304</v>
+        <v>1.1666670877286551</v>
       </c>
       <c r="G1" t="n">
-        <v>1.1666708635425727</v>
+        <v>1.1666673339558653</v>
       </c>
       <c r="H1" t="n">
-        <v>1.166673313384326</v>
+        <v>1.1666677241254977</v>
       </c>
       <c r="I1" t="n">
-        <v>1.1666771887479002</v>
+        <v>1.1666683423163413</v>
       </c>
       <c r="J1" t="n">
-        <v>1.1666833122856037</v>
+        <v>1.1666693216148016</v>
       </c>
       <c r="K1" t="n">
-        <v>1.1666929710606435</v>
+        <v>1.1666708725230692</v>
       </c>
       <c r="L1" t="n">
-        <v>1.166708163051073</v>
+        <v>1.1666733275965213</v>
       </c>
       <c r="M1" t="n">
-        <v>1.166731950438698</v>
+        <v>1.1666772112201824</v>
       </c>
       <c r="N1" t="n">
-        <v>1.1667689273521855</v>
+        <v>1.166683347770018</v>
       </c>
       <c r="O1" t="n">
-        <v>1.1668257364416161</v>
+        <v>1.1666930269694828</v>
       </c>
       <c r="P1" t="n">
-        <v>1.1669113492199938</v>
+        <v>1.1667082508343636</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.167036256720958</v>
+        <v>1.166732087502636</v>
       </c>
       <c r="R1" t="n">
-        <v>1.16720839839408</v>
+        <v>1.1667691394495932</v>
       </c>
       <c r="S1" t="n">
-        <v>1.167420960604934</v>
+        <v>1.1668260598855573</v>
       </c>
       <c r="T1" t="n">
-        <v>1.167622639881591</v>
+        <v>1.166911830657077</v>
       </c>
       <c r="U1" t="n">
-        <v>1.1676559343999386</v>
+        <v>1.167036944215674</v>
       </c>
       <c r="V1" t="n">
-        <v>1.1671498696990903</v>
+        <v>1.1672093087747784</v>
       </c>
       <c r="W1" t="n">
-        <v>1.1653717587810772</v>
+        <v>1.1674219912497994</v>
       </c>
       <c r="X1" t="n">
-        <v>1.1610789480732937</v>
+        <v>1.1676233684568693</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.1524311043334223</v>
+        <v>1.167655232757555</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.1369894379536372</v>
+        <v>1.1671452935547098</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.1118041036397828</v>
+        <v>1.1653588124027627</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.073694062177403</v>
+        <v>1.1610504947484395</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.0199938200580223</v>
+        <v>1.1523771633130346</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.9499659284715173</v>
+        <v>1.1368973706580001</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.8664285469063854</v>
+        <v>1.1116593147393938</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.7761648540824211</v>
+        <v>1.073482137663458</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.6877788713750392</v>
+        <v>1.01970554651975</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.6079299860354557</v>
+        <v>0.9496051076143199</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.5389795322644682</v>
+        <v>0.8660181096052764</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.47972116766060696</v>
+        <v>0.7757432545754335</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.42779782096170577</v>
+        <v>0.6873844222660216</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.38150584885604727</v>
+        <v>0.6075842236347323</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.3400723368671395</v>
+        <v>0.5386834883517301</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.30309077872777473</v>
+        <v>0.4794646248136969</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.2701360362520951</v>
+        <v>0.4275705538920727</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.24076646421221765</v>
+        <v>0.3813024122327728</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.21458831253215088</v>
+        <v>0.3398904734588158</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.19125548806098172</v>
+        <v>0.30292866230739945</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.17045909719171537</v>
+        <v>0.26999157887082686</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.15192357716054117</v>
+        <v>0.24063770634180384</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.1354032694015636</v>
+        <v>0.21447354736278407</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.12067916912608298</v>
+        <v>0.191153198127207</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.10755604526110317</v>
+        <v>0.17036792726971348</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.15184231909266616</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.1353308460946384</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.12061462038289081</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.10749851513823167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-364.97219843244756</v>
+        <v>-915.7870752945769</v>
       </c>
       <c r="B2" t="n">
-        <v>-289.90796963029715</v>
+        <v>-727.4356295479334</v>
       </c>
       <c r="C2" t="n">
-        <v>-230.2823973690292</v>
+        <v>-577.8227836823704</v>
       </c>
       <c r="D2" t="n">
-        <v>-182.92020250327514</v>
+        <v>-458.98110808975235</v>
       </c>
       <c r="E2" t="n">
-        <v>-145.2991754558858</v>
+        <v>-364.58185018682593</v>
       </c>
       <c r="F2" t="n">
-        <v>-115.41585936392264</v>
+        <v>-289.59790526245484</v>
       </c>
       <c r="G2" t="n">
-        <v>-91.67885870155915</v>
+        <v>-230.0361048207338</v>
       </c>
       <c r="H2" t="n">
-        <v>-72.8240916782189</v>
+        <v>-182.72456579824083</v>
       </c>
       <c r="I2" t="n">
-        <v>-57.847473299494325</v>
+        <v>-145.143776226219</v>
       </c>
       <c r="J2" t="n">
-        <v>-45.95144423100627</v>
+        <v>-115.2924220340619</v>
       </c>
       <c r="K2" t="n">
-        <v>-36.50249795717397</v>
+        <v>-91.58080978374129</v>
       </c>
       <c r="L2" t="n">
-        <v>-28.997444450175976</v>
+        <v>-72.74620971036867</v>
       </c>
       <c r="M2" t="n">
-        <v>-23.036613861529244</v>
+        <v>-57.7856107834946</v>
       </c>
       <c r="N2" t="n">
-        <v>-18.30257341677868</v>
+        <v>-45.90230676362888</v>
       </c>
       <c r="O2" t="n">
-        <v>-14.54322444796608</v>
+        <v>-36.4634687917478</v>
       </c>
       <c r="P2" t="n">
-        <v>-11.558380018266</v>
+        <v>-28.966445146573662</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.189109325036295</v>
+        <v>-23.01199360417938</v>
       </c>
       <c r="R2" t="n">
-        <v>-7.309282769281094</v>
+        <v>-18.283021107624684</v>
       </c>
       <c r="S2" t="n">
-        <v>-5.818868518576424</v>
+        <v>-14.52769889508598</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.638622124904615</v>
+        <v>-11.546054506031894</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.7058770003426456</v>
+        <v>-9.179327619488637</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.9711865309746486</v>
+        <v>-7.301524222366453</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.3955977012362157</v>
+        <v>-5.812720414805182</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.9483769496599785</v>
+        <v>-4.633757778095347</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.6050792115946648</v>
+        <v>-3.7020383594559245</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.3459052806989373</v>
+        <v>-2.968170207953421</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.1542643991617185</v>
+        <v>-2.393243471605185</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.0154269237223235</v>
+        <v>-1.946558038750144</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.91532186748737</v>
+        <v>-1.603694033173695</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.83995659458813</v>
+        <v>-1.3448703738378578</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.7762409660955313</v>
+        <v>-1.1535080272066864</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.7143821506419359</v>
+        <v>-1.01488297220251</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.6502537165523959</v>
+        <v>-0.9149251492329744</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.5852272252620658</v>
+        <v>-0.839642852849543</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.5231077630675068</v>
+        <v>-0.7759548160336995</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.4667621122801231</v>
+        <v>-0.7140901298513836</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.4168417204951586</v>
+        <v>-0.649950971130593</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.3725614395523207</v>
+        <v>-0.5849288227215517</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.3329646238156631</v>
+        <v>-0.5228311904881353</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.2974555885900265</v>
+        <v>-0.4665155212345525</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.26565161585444874</v>
+        <v>-0.41662372106201684</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.2371966862054027</v>
+        <v>-0.37236719355956044</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.21174812322751851</v>
+        <v>-0.33279047901146147</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.18899617162227514</v>
+        <v>-0.29729948734563466</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.16866212156252341</v>
+        <v>-0.26551190402695124</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.15049453410137395</v>
+        <v>-0.23707171633391652</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.13426696740440075</v>
+        <v>-0.21163637574453004</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.11977574131147918</v>
+        <v>-0.1888962836447584</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.10683783818174182</v>
+        <v>-0.16857286333359264</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.1504147971901299</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.13419575427034033</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.1197121551720876</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.10678107362444045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.3194396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.6610760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0911708587578497</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6326281344936886</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.314282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>4.1724344086406475</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>5.25278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.612862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>8.325101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>10.48068137742814</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>13.194396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>16.610760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>20.9117085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>26.326281344936884</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>33.14282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>41.724344086406475</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.5278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>66.12862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>83.25101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>104.80681377428141</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>131.94396118962183</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>166.1076056743983</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>209.117085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>263.2628134493688</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>331.42824583183767</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>417.2434408640648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>525.278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>661.2862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>832.5101137240147</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1048.068137742814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1319.4396118962181</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1661.0760567439827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2091.17085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2632.6281344936883</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3314.282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4172.434408640647</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>5252.78370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6612.862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>8325.101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>10480.681377428142</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>13194.396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>16610.760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20911.708587578498</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>26326.281344936884</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>33142.82458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>41724.344086406476</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>52527.8370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>66128.62890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>83251.01137240147</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -990,449 +1062,485 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.1999990247839833</v>
+        <v>1.1999998451057456</v>
       </c>
       <c r="B1" t="n">
-        <v>1.1999984543991522</v>
+        <v>1.1999997545094632</v>
       </c>
       <c r="C1" t="n">
-        <v>1.199997550418829</v>
+        <v>1.1999996109245037</v>
       </c>
       <c r="D1" t="n">
-        <v>1.1999961177535692</v>
+        <v>1.1999993833588647</v>
       </c>
       <c r="E1" t="n">
-        <v>1.1999938472501974</v>
+        <v>1.1999990226946116</v>
       </c>
       <c r="F1" t="n">
-        <v>1.199990249041315</v>
+        <v>1.199998451087774</v>
       </c>
       <c r="G1" t="n">
-        <v>1.199984547008969</v>
+        <v>1.1999975451707814</v>
       </c>
       <c r="H1" t="n">
-        <v>1.1999755117656392</v>
+        <v>1.1999961094363096</v>
       </c>
       <c r="I1" t="n">
-        <v>1.1999611965606405</v>
+        <v>1.1999938340690703</v>
       </c>
       <c r="J1" t="n">
-        <v>1.199938520256695</v>
+        <v>1.199990228152749</v>
       </c>
       <c r="K1" t="n">
-        <v>1.199902610233282</v>
+        <v>1.1999845139081273</v>
       </c>
       <c r="L1" t="n">
-        <v>1.199845770530919</v>
+        <v>1.1999754593176561</v>
       </c>
       <c r="M1" t="n">
-        <v>1.1997558702157423</v>
+        <v>1.199961113469603</v>
       </c>
       <c r="N1" t="n">
-        <v>1.199613847582729</v>
+        <v>1.1999383886500756</v>
       </c>
       <c r="O1" t="n">
-        <v>1.1993898968929997</v>
+        <v>1.199902401860819</v>
       </c>
       <c r="P1" t="n">
-        <v>1.1990377646530805</v>
+        <v>1.199845440808167</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.1984864974044147</v>
+        <v>1.1997553489517823</v>
       </c>
       <c r="R1" t="n">
-        <v>1.1976290996838568</v>
+        <v>1.1996130246966656</v>
       </c>
       <c r="S1" t="n">
-        <v>1.1963080840756193</v>
+        <v>1.1993886007723904</v>
       </c>
       <c r="T1" t="n">
-        <v>1.1942987556657292</v>
+        <v>1.1990357302083536</v>
       </c>
       <c r="U1" t="n">
-        <v>1.1912907998393198</v>
+        <v>1.1984833207979764</v>
       </c>
       <c r="V1" t="n">
-        <v>1.1868628089402276</v>
+        <v>1.197624178057298</v>
       </c>
       <c r="W1" t="n">
-        <v>1.1804278639094277</v>
+        <v>1.1963005421559045</v>
       </c>
       <c r="X1" t="n">
-        <v>1.1711125836005989</v>
+        <v>1.1942873645968943</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.1575604086193891</v>
+        <v>1.1912738839537256</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.137745478072373</v>
+        <v>1.1868380853463514</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.1089717213751706</v>
+        <v>1.1803920635108553</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.06824429208796</v>
+        <v>1.1710606902417853</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.0131656916448326</v>
+        <v>1.157484657938931</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.9433152653307268</v>
+        <v>1.1376347741273252</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.8615088730849646</v>
+        <v>1.1088123640612053</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.7737863408066971</v>
+        <v>1.0680228392501754</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.6874990695123062</v>
+        <v>1.0128744416904283</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.6085106062184281</v>
+        <v>0.9429591462369981</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.5394179419006786</v>
+        <v>0.8611092596294041</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.4797688769084536</v>
+        <v>0.7733764789491473</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.4276743985157527</v>
+        <v>0.6871116983638772</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.3814122483329578</v>
+        <v>0.6081659730436129</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.3400326953594451</v>
+        <v>0.5391200918601087</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.3030680523188281</v>
+        <v>0.4795108850952189</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.27011764016807466</v>
+        <v>0.4274469467359473</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.24075307834698279</v>
+        <v>0.38120911465128754</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.21457892635969716</v>
+        <v>0.33985098948326753</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.19124881744693578</v>
+        <v>0.30290596340781784</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.17045436147017373</v>
+        <v>0.26997320428554594</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.15192021688773213</v>
+        <v>0.24062434275515995</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.13540088557063326</v>
+        <v>0.21446417623927366</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.12067747838828026</v>
+        <v>0.19114653808873772</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.10755484634178386</v>
+        <v>0.17036319909340353</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.15183896417488768</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.13532846606548127</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.12061293234316313</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.10749731813319904</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-364.97242588430146</v>
+        <v>-915.7871659439371</v>
       </c>
       <c r="B2" t="n">
-        <v>-289.90825597039225</v>
+        <v>-727.4357436684113</v>
       </c>
       <c r="C2" t="n">
-        <v>-230.2827578402271</v>
+        <v>-577.8229273509306</v>
       </c>
       <c r="D2" t="n">
-        <v>-182.92065629042477</v>
+        <v>-458.98128895653815</v>
       </c>
       <c r="E2" t="n">
-        <v>-145.29974670175167</v>
+        <v>-364.5820778821933</v>
       </c>
       <c r="F2" t="n">
-        <v>-115.41657844343695</v>
+        <v>-289.5981919090997</v>
       </c>
       <c r="G2" t="n">
-        <v>-91.6797638165892</v>
+        <v>-230.036465677824</v>
       </c>
       <c r="H2" t="n">
-        <v>-72.82523084649105</v>
+        <v>-182.72502007113832</v>
       </c>
       <c r="I2" t="n">
-        <v>-57.84890682113689</v>
+        <v>-145.14434808348204</v>
       </c>
       <c r="J2" t="n">
-        <v>-45.953247719464954</v>
+        <v>-115.29314188303397</v>
       </c>
       <c r="K2" t="n">
-        <v>-36.50476600756158</v>
+        <v>-91.58171586697132</v>
       </c>
       <c r="L2" t="n">
-        <v>-29.000294966153152</v>
+        <v>-72.74735009655548</v>
       </c>
       <c r="M2" t="n">
-        <v>-23.04019292975965</v>
+        <v>-57.787045836453814</v>
       </c>
       <c r="N2" t="n">
-        <v>-18.307060327022448</v>
+        <v>-45.90411217602283</v>
       </c>
       <c r="O2" t="n">
-        <v>-14.548835866689153</v>
+        <v>-36.465739256509494</v>
       </c>
       <c r="P2" t="n">
-        <v>-11.565371208411998</v>
+        <v>-28.969298686736952</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.197768371381187</v>
+        <v>-23.015576449254343</v>
       </c>
       <c r="R2" t="n">
-        <v>-7.319910854590531</v>
+        <v>-18.287512712670505</v>
       </c>
       <c r="S2" t="n">
-        <v>-5.831736063044263</v>
+        <v>-14.533316106601161</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.653890157012788</v>
+        <v>-11.553052760447027</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.7234830197425794</v>
+        <v>-9.187995122380315</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.990723862043233</v>
+        <v>-7.312162138198207</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.4162608006247</v>
+        <v>-5.825598867268773</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.9690534661354344</v>
+        <v>-4.649037043495645</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.6245807267940653</v>
+        <v>-3.7196546003749242</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.3631945210410474</v>
+        <v>-2.987714934182595</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.1685336282022327</v>
+        <v>-2.4139093682703097</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.0260531439797762</v>
+        <v>-1.9672317985421288</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.9218892029089629</v>
+        <v>-1.623187490289219</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.8425163963050758</v>
+        <v>-1.3621472791641132</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.7756883986967493</v>
+        <v>-1.1677616433078994</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.7124236047492282</v>
+        <v>-1.0254910716165173</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.6486009889648916</v>
+        <v>-0.921473221238953</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.5846377476522907</v>
+        <v>-0.8421853641912204</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.5232889946197167</v>
+        <v>-0.7753913417798536</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.46709768561032045</v>
+        <v>-0.7121294848535938</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.4170201318808901</v>
+        <v>-0.6483023899971045</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.372613282002989</v>
+        <v>-0.5843441963189887</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.33298991445305076</v>
+        <v>-0.5230144876521171</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.29748160192300116</v>
+        <v>-0.46685074536580057</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.26567167103590406</v>
+        <v>-0.4168013087308089</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.23721031789465918</v>
+        <v>-0.372418722586381</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.21175775151427048</v>
+        <v>-0.33281576435743376</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.18900300582583227</v>
+        <v>-0.2973254892715607</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.16866695812420532</v>
+        <v>-0.2655319242188416</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.15049795836252292</v>
+        <v>-0.23708532475643998</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.13426939166884855</v>
+        <v>-0.21164598885847918</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.11977745760291125</v>
+        <v>-0.18890310687806602</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.1068390532474803</v>
+        <v>-0.16857769213796128</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.150418215959926</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.13419817464689784</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.11971386871099278</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.10678228674147401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.3194396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.6610760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0911708587578497</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6326281344936886</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.314282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>4.1724344086406475</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>5.25278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.612862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>8.325101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>10.48068137742814</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>13.194396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>16.610760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>20.9117085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>26.326281344936884</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>33.14282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>41.724344086406475</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.5278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>66.12862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>83.25101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>104.80681377428141</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>131.94396118962183</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>166.1076056743983</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>209.117085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>263.2628134493688</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>331.42824583183767</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>417.2434408640648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>525.278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>661.2862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>832.5101137240147</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1048.068137742814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1319.4396118962181</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1661.0760567439827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2091.17085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2632.6281344936883</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3314.282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4172.434408640647</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>5252.78370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6612.862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>8325.101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>10480.681377428142</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>13194.396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>16610.760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20911.708587578498</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>26326.281344936884</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>33142.82458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>41724.344086406476</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>52527.8370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>66128.62890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>83251.01137240147</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1450,449 +1558,485 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.1666660791342307</v>
+        <v>1.1666665733486137</v>
       </c>
       <c r="B1" t="n">
-        <v>1.1666657354969796</v>
+        <v>1.166666518767683</v>
       </c>
       <c r="C1" t="n">
-        <v>1.166665190878422</v>
+        <v>1.1666664322629843</v>
       </c>
       <c r="D1" t="n">
-        <v>1.1666643277407476</v>
+        <v>1.1666662951628963</v>
       </c>
       <c r="E1" t="n">
-        <v>1.1666629598214289</v>
+        <v>1.1666660778754574</v>
       </c>
       <c r="F1" t="n">
-        <v>1.1666607919703675</v>
+        <v>1.1666657335019859</v>
       </c>
       <c r="G1" t="n">
-        <v>1.1666573565470344</v>
+        <v>1.1666651877166399</v>
       </c>
       <c r="H1" t="n">
-        <v>1.1666519127445627</v>
+        <v>1.1666643227298357</v>
       </c>
       <c r="I1" t="n">
-        <v>1.1666432873494286</v>
+        <v>1.1666629518801084</v>
       </c>
       <c r="J1" t="n">
-        <v>1.1666296231635809</v>
+        <v>1.166660779385327</v>
       </c>
       <c r="K1" t="n">
-        <v>1.166607982279036</v>
+        <v>1.1666573366038613</v>
       </c>
       <c r="L1" t="n">
-        <v>1.166573722277756</v>
+        <v>1.1666518811437205</v>
       </c>
       <c r="M1" t="n">
-        <v>1.1665195198430514</v>
+        <v>1.1666432372829216</v>
       </c>
       <c r="N1" t="n">
-        <v>1.1664338532844953</v>
+        <v>1.1666295438572603</v>
       </c>
       <c r="O1" t="n">
-        <v>1.1662986696740927</v>
+        <v>1.1666078566965032</v>
       </c>
       <c r="P1" t="n">
-        <v>1.1660858566729562</v>
+        <v>1.1665735235164838</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.1657520305508213</v>
+        <v>1.1665192055092226</v>
       </c>
       <c r="R1" t="n">
-        <v>1.1652310682742628</v>
+        <v>1.1664333567882712</v>
       </c>
       <c r="S1" t="n">
-        <v>1.1644237203406285</v>
+        <v>1.1662978869354652</v>
       </c>
       <c r="T1" t="n">
-        <v>1.1631831488847624</v>
+        <v>1.1660846262106757</v>
       </c>
       <c r="U1" t="n">
-        <v>1.1612928961351128</v>
+        <v>1.1657501044610288</v>
       </c>
       <c r="V1" t="n">
-        <v>1.1584268562825664</v>
+        <v>1.1652280712894745</v>
       </c>
       <c r="W1" t="n">
-        <v>1.1540695670259125</v>
+        <v>1.1644190933774317</v>
       </c>
       <c r="X1" t="n">
-        <v>1.1473750208714253</v>
+        <v>1.1631760686171226</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.1369815415944313</v>
+        <v>1.16128214281655</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.120866846873318</v>
+        <v>1.15841055588924</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.0963543304483472</v>
+        <v>1.154044686732538</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.0603828993660778</v>
+        <v>1.1473365703539677</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.010206660291003</v>
+        <v>1.136921720318575</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.9446507153672914</v>
+        <v>1.1207746414203934</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.8655920902832293</v>
+        <v>1.0962160595322206</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.7785704963575781</v>
+        <v>1.06018431712497</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.6913716588577777</v>
+        <v>1.0099375022887649</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.6109319891657745</v>
+        <v>0.944311615149517</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.5407226445290076</v>
+        <v>0.8652005215960832</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.4805126461672301</v>
+        <v>0.7781594262636825</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.42819842689557264</v>
+        <v>0.6909779093543102</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.3818166699464308</v>
+        <v>0.6105809597890824</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.3403305206356259</v>
+        <v>0.5404209690426522</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.3032784264304032</v>
+        <v>0.480253073106952</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.27026636031662976</v>
+        <v>0.4279703180904341</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.2408588448736845</v>
+        <v>0.3816130228447305</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.2146540789668423</v>
+        <v>0.34014835092923035</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.1913021769986427</v>
+        <v>0.30311599419496166</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.17049223793865917</v>
+        <v>0.2701216881111962</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.151947094867712</v>
+        <v>0.2407299418565375</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.13541995378188948</v>
+        <v>0.2145392093861056</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.12069100292379832</v>
+        <v>0.19119981275382805</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.10756443692759576</v>
+        <v>0.1704010152539921</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.15186579932395583</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.13534750386916367</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.12062643529772867</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.10750689340677128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-364.9723115042478</v>
+        <v>-915.7871203591558</v>
       </c>
       <c r="B2" t="n">
-        <v>-289.9081119755518</v>
+        <v>-727.4356862806422</v>
       </c>
       <c r="C2" t="n">
-        <v>-230.2825765636893</v>
+        <v>-577.8228551041509</v>
       </c>
       <c r="D2" t="n">
-        <v>-182.9204280812262</v>
+        <v>-458.9811980035123</v>
       </c>
       <c r="E2" t="n">
-        <v>-145.29945941225355</v>
+        <v>-364.5819633796787</v>
       </c>
       <c r="F2" t="n">
-        <v>-115.41621678506573</v>
+        <v>-289.59804776009366</v>
       </c>
       <c r="G2" t="n">
-        <v>-91.67930855094258</v>
+        <v>-230.0362842072105</v>
       </c>
       <c r="H2" t="n">
-        <v>-72.82465777134806</v>
+        <v>-182.72479161762723</v>
       </c>
       <c r="I2" t="n">
-        <v>-57.84818550258092</v>
+        <v>-145.1440604864412</v>
       </c>
       <c r="J2" t="n">
-        <v>-45.952339912960646</v>
+        <v>-115.29277983754619</v>
       </c>
       <c r="K2" t="n">
-        <v>-36.50362370447572</v>
+        <v>-91.58126011408721</v>
       </c>
       <c r="L2" t="n">
-        <v>-28.998858002434083</v>
+        <v>-72.74677640824291</v>
       </c>
       <c r="M2" t="n">
-        <v>-23.038386109763646</v>
+        <v>-57.78632374641389</v>
       </c>
       <c r="N2" t="n">
-        <v>-18.304790066602834</v>
+        <v>-45.90320339917621</v>
       </c>
       <c r="O2" t="n">
-        <v>-14.54598648123868</v>
+        <v>-36.46459573362451</v>
       </c>
       <c r="P2" t="n">
-        <v>-11.561801226789854</v>
+        <v>-28.967860190942147</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.193307746219167</v>
+        <v>-23.01376770756151</v>
       </c>
       <c r="R2" t="n">
-        <v>-7.314360789135384</v>
+        <v>-18.285240046989447</v>
       </c>
       <c r="S2" t="n">
-        <v>-5.82487443481684</v>
+        <v>-14.530463720751346</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.645486828748047</v>
+        <v>-11.549479055737532</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.713329205072235</v>
+        <v>-9.183529915272928</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.978675007824737</v>
+        <v>-7.306606505159013</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.40228085467076</v>
+        <v>-5.818730603637762</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.9532378348386616</v>
+        <v>-4.640626031377535</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.6071492569755097</v>
+        <v>-3.709492244703648</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.3444923211847106</v>
+        <v>-2.9756570907309943</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.1491034241415043</v>
+        <v>-2.399920567833556</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.0067812267036589</v>
+        <v>-1.9514080590582479</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.9040927664718317</v>
+        <v>-1.6057492065622385</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.8277393387980848</v>
+        <v>-1.343440237096877</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.7650909096384111</v>
+        <v>-1.1483297991698125</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.7060946160899287</v>
+        <v>-1.0062226467535795</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.6454685982120902</v>
+        <v>-0.903687251061624</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.583188194092574</v>
+        <v>-0.8274256501286156</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.5224165931930576</v>
+        <v>-0.7648144900039291</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.46637100442361845</v>
+        <v>-0.7058185472344357</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.4164118994875692</v>
+        <v>-0.6451812778919258</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.372163296043679</v>
+        <v>-0.5828993493622092</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.33267880585732335</v>
+        <v>-0.5221432962773016</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.2972646765796678</v>
+        <v>-0.46612451917691305</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.26551779315402707</v>
+        <v>-0.4161937541656691</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.23710121302367843</v>
+        <v>-0.37196947056200824</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.21168053189988573</v>
+        <v>-0.3325051938094938</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.18894833972812572</v>
+        <v>-0.2971089149395464</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.16862825705959666</v>
+        <v>-0.2653782907526047</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.15047056011499532</v>
+        <v>-0.23697639487991726</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.13424999518123304</v>
+        <v>-0.21156889315399835</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.11976372593527801</v>
+        <v>-0.18884852844981975</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.10682933196822564</v>
+        <v>-0.16853905314499917</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.1503908616554814</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.13417880926865597</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.1197001590671281</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.10677258105386322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.3194396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.6610760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0911708587578497</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6326281344936886</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.314282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>4.1724344086406475</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>5.25278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.612862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>8.325101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>10.48068137742814</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>13.194396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>16.610760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>20.9117085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>26.326281344936884</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>33.14282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>41.724344086406475</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.5278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>66.12862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>83.25101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>104.80681377428141</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>131.94396118962183</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>166.1076056743983</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>209.117085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>263.2628134493688</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>331.42824583183767</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>417.2434408640648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>525.278370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>661.2862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>832.5101137240147</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1048.068137742814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1319.4396118962181</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1661.0760567439827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2091.17085875785</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2632.6281344936883</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3314.282458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4172.434408640647</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>5252.78370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6612.862890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>8325.101137240146</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>10480.681377428142</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>13194.396118962182</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>16610.760567439826</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20911.708587578498</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>26326.281344936884</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>33142.82458318377</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>41724.344086406476</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>52527.8370608208</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>66128.62890245074</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>83251.01137240147</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/lin_R1_by_R2 (2 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (2 by 1)1000.xlsx
@@ -392,163 +392,163 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.5258407740572902</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.6619943130182377</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.8334014631218818</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1.0491902801505764</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1.3208523054890022</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1.6628545326070172</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2.0934098272160866</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2.6354468287819683</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3.317830984185971</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4.1769017380297715</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5.258407740572903</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6.619943130182377</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8.334014631218817</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10.491902801505764</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13.208523054890021</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16.62854532607017</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20.934098272160867</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26.35446828781968</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>33.178309841859715</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41.76901738029771</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52.58407740572902</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>66.19943130182378</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>83.34014631218818</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>104.91902801505765</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>132.0852305489002</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>166.28545326070173</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>209.34098272160864</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>263.5446828781968</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>331.78309841859715</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>417.6901738029771</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>525.8407740572902</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>661.9943130182378</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>833.4014631218818</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>1049.1902801505764</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>1320.8523054890022</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>1662.854532607017</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>2093.4098272160863</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>2635.446828781968</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>3317.8309841859714</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>4176.901738029771</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>5258.407740572902</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>6619.943130182377</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>8334.014631218817</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>10491.902801505765</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>13208.523054890022</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>16628.545326070172</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>20934.098272160863</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>26354.46828781968</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>33178.309841859715</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>41769.01738029771</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>52584.077405729025</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>66199.43130182377</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>83340.14631218818</v>
       </c>
     </row>
   </sheetData>
@@ -888,163 +888,163 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.5258407740572902</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.6619943130182377</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.8334014631218818</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1.0491902801505764</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1.3208523054890022</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1.6628545326070172</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2.0934098272160866</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2.6354468287819683</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3.317830984185971</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4.1769017380297715</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5.258407740572903</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6.619943130182377</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8.334014631218817</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10.491902801505764</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13.208523054890021</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16.62854532607017</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20.934098272160867</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26.35446828781968</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>33.178309841859715</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41.76901738029771</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52.58407740572902</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>66.19943130182378</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>83.34014631218818</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>104.91902801505765</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>132.0852305489002</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>166.28545326070173</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>209.34098272160864</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>263.5446828781968</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>331.78309841859715</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>417.6901738029771</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>525.8407740572902</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>661.9943130182378</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>833.4014631218818</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>1049.1902801505764</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>1320.8523054890022</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>1662.854532607017</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>2093.4098272160863</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>2635.446828781968</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>3317.8309841859714</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>4176.901738029771</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>5258.407740572902</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>6619.943130182377</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>8334.014631218817</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>10491.902801505765</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>13208.523054890022</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>16628.545326070172</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>20934.098272160863</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>26354.46828781968</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>33178.309841859715</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>41769.01738029771</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>52584.077405729025</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>66199.43130182377</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>83340.14631218818</v>
       </c>
     </row>
   </sheetData>
@@ -1384,163 +1384,163 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.5258407740572902</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.6619943130182377</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.8334014631218818</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1.0491902801505764</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1.3208523054890022</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1.6628545326070172</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2.0934098272160866</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2.6354468287819683</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3.317830984185971</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4.1769017380297715</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5.258407740572903</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6.619943130182377</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8.334014631218817</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10.491902801505764</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13.208523054890021</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16.62854532607017</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20.934098272160867</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26.35446828781968</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>33.178309841859715</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41.76901738029771</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52.58407740572902</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>66.19943130182378</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>83.34014631218818</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>104.91902801505765</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>132.0852305489002</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>166.28545326070173</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>209.34098272160864</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>263.5446828781968</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>331.78309841859715</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>417.6901738029771</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>525.8407740572902</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>661.9943130182378</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>833.4014631218818</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>1049.1902801505764</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>1320.8523054890022</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>1662.854532607017</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>2093.4098272160863</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>2635.446828781968</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>3317.8309841859714</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>4176.901738029771</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>5258.407740572902</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>6619.943130182377</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>8334.014631218817</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>10491.902801505765</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>13208.523054890022</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>16628.545326070172</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>20934.098272160863</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>26354.46828781968</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>33178.309841859715</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>41769.01738029771</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>52584.077405729025</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>66199.43130182377</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>83340.14631218818</v>
       </c>
     </row>
   </sheetData>
@@ -1880,163 +1880,163 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.5258407740572902</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.6619943130182377</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.8334014631218818</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1.0491902801505764</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1.3208523054890022</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1.6628545326070172</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2.0934098272160866</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2.6354468287819683</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3.317830984185971</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4.1769017380297715</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5.258407740572903</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6.619943130182377</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8.334014631218817</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10.491902801505764</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13.208523054890021</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16.62854532607017</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20.934098272160867</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26.35446828781968</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>33.178309841859715</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41.76901738029771</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52.58407740572902</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>66.19943130182378</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>83.34014631218818</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>104.91902801505765</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>132.0852305489002</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>166.28545326070173</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>209.34098272160864</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>263.5446828781968</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>331.78309841859715</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>417.6901738029771</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>525.8407740572902</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>661.9943130182378</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>833.4014631218818</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>1049.1902801505764</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>1320.8523054890022</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>1662.854532607017</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>2093.4098272160863</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>2635.446828781968</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>3317.8309841859714</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>4176.901738029771</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>5258.407740572902</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>6619.943130182377</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>8334.014631218817</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>10491.902801505765</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>13208.523054890022</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>16628.545326070172</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>20934.098272160863</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>26354.46828781968</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>33178.309841859715</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>41769.01738029771</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>52584.077405729025</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>66199.43130182377</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>83340.14631218818</v>
       </c>
     </row>
   </sheetData>
